--- a/examplefile.xlsx
+++ b/examplefile.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="17580"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>en</t>
   </si>
@@ -19,44 +22,31 @@
     <t>Context</t>
   </si>
   <si>
-    <t>Localization2</t>
-  </si>
-  <si>
     <t>the process of adapting a product or content to a specific locale or market</t>
-  </si>
-  <si>
-    <t>Collaborators2</t>
   </si>
   <si>
     <t>a person who works jointly on an activity or project; an associate.</t>
   </si>
   <si>
-    <t>Teams2</t>
+    <t>group of players forming one side in a competitive game or sport.</t>
   </si>
   <si>
-    <t>group of players forming one side in a competitive game or sport.</t>
+    <t>Localization</t>
+  </si>
+  <si>
+    <t>Collaborators</t>
+  </si>
+  <si>
+    <t>Teams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -144,71 +134,108 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffa4c2f4"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFA4C2F4"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -410,7 +437,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -429,7 +456,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -459,7 +486,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -485,7 +512,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -511,7 +538,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -537,7 +564,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -563,7 +590,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -589,7 +616,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -615,7 +642,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -641,7 +668,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -667,7 +694,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -680,9 +707,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -699,7 +732,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -718,7 +751,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -744,7 +777,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -770,7 +803,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -796,7 +829,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,7 +881,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +907,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -900,7 +933,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,7 +959,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,7 +985,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -965,9 +998,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -981,7 +1020,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1000,7 +1039,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1056,7 +1095,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1082,7 +1121,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,7 +1147,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +1173,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1199,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1225,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1251,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1277,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1251,38 +1290,47 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y219"/>
+  <dimension ref="A1:IV219"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.1719" style="1" customWidth="1"/>
-    <col min="3" max="25" width="10.6719" style="1" customWidth="1"/>
-    <col min="26" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
+    <col min="3" max="25" width="10.7109375" style="1" customWidth="1"/>
+    <col min="26" max="256" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
@@ -1309,12 +1357,12 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" ht="27" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s" s="6">
-        <v>3</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1340,12 +1388,12 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
     </row>
-    <row r="3" ht="27" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>4</v>
+    <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="B3" t="s" s="9">
-        <v>5</v>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1371,12 +1419,12 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" ht="27" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>6</v>
+    <row r="4" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
       </c>
-      <c r="B4" t="s" s="9">
-        <v>7</v>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1402,7 +1450,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1429,7 +1477,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1456,7 +1504,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1483,7 +1531,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1510,7 +1558,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1537,7 +1585,7 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1564,7 +1612,7 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
     </row>
-    <row r="11" ht="13.65" customHeight="1">
+    <row r="11" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1591,7 +1639,7 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
     </row>
-    <row r="12" ht="13.65" customHeight="1">
+    <row r="12" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1618,7 +1666,7 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
     </row>
-    <row r="13" ht="13.65" customHeight="1">
+    <row r="13" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1645,7 +1693,7 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
     </row>
-    <row r="14" ht="13.65" customHeight="1">
+    <row r="14" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1672,7 +1720,7 @@
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
     </row>
-    <row r="15" ht="13.65" customHeight="1">
+    <row r="15" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1699,7 +1747,7 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
     </row>
-    <row r="16" ht="13.65" customHeight="1">
+    <row r="16" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1726,7 +1774,7 @@
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
     </row>
-    <row r="17" ht="13.65" customHeight="1">
+    <row r="17" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1753,7 +1801,7 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
     </row>
-    <row r="18" ht="13.65" customHeight="1">
+    <row r="18" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1780,7 +1828,7 @@
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
     </row>
-    <row r="19" ht="13.65" customHeight="1">
+    <row r="19" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1807,7 +1855,7 @@
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1834,7 +1882,7 @@
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1861,7 +1909,7 @@
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1888,7 +1936,7 @@
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1915,7 +1963,7 @@
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1942,7 +1990,7 @@
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1969,7 +2017,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1996,7 +2044,7 @@
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2023,7 +2071,7 @@
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2050,7 +2098,7 @@
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2077,7 +2125,7 @@
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2104,7 +2152,7 @@
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2131,7 +2179,7 @@
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2158,7 +2206,7 @@
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2185,7 +2233,7 @@
       <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2212,7 +2260,7 @@
       <c r="X34" s="10"/>
       <c r="Y34" s="10"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -2239,7 +2287,7 @@
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2266,7 +2314,7 @@
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2293,7 +2341,7 @@
       <c r="X37" s="10"/>
       <c r="Y37" s="10"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2320,7 +2368,7 @@
       <c r="X38" s="10"/>
       <c r="Y38" s="10"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2347,7 +2395,7 @@
       <c r="X39" s="10"/>
       <c r="Y39" s="10"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2374,7 +2422,7 @@
       <c r="X40" s="10"/>
       <c r="Y40" s="10"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2401,7 +2449,7 @@
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2428,7 +2476,7 @@
       <c r="X42" s="10"/>
       <c r="Y42" s="10"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2455,7 +2503,7 @@
       <c r="X43" s="10"/>
       <c r="Y43" s="10"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2482,7 +2530,7 @@
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -2509,7 +2557,7 @@
       <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2536,7 +2584,7 @@
       <c r="X46" s="10"/>
       <c r="Y46" s="10"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2563,7 +2611,7 @@
       <c r="X47" s="10"/>
       <c r="Y47" s="10"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -2590,7 +2638,7 @@
       <c r="X48" s="10"/>
       <c r="Y48" s="10"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -2617,7 +2665,7 @@
       <c r="X49" s="10"/>
       <c r="Y49" s="10"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -2644,7 +2692,7 @@
       <c r="X50" s="10"/>
       <c r="Y50" s="10"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -2671,7 +2719,7 @@
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -2698,7 +2746,7 @@
       <c r="X52" s="10"/>
       <c r="Y52" s="10"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2725,7 +2773,7 @@
       <c r="X53" s="10"/>
       <c r="Y53" s="10"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -2752,7 +2800,7 @@
       <c r="X54" s="10"/>
       <c r="Y54" s="10"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2779,7 +2827,7 @@
       <c r="X55" s="10"/>
       <c r="Y55" s="10"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -2806,7 +2854,7 @@
       <c r="X56" s="10"/>
       <c r="Y56" s="10"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2833,7 +2881,7 @@
       <c r="X57" s="10"/>
       <c r="Y57" s="10"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -2860,7 +2908,7 @@
       <c r="X58" s="10"/>
       <c r="Y58" s="10"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -2887,7 +2935,7 @@
       <c r="X59" s="10"/>
       <c r="Y59" s="10"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -2914,7 +2962,7 @@
       <c r="X60" s="10"/>
       <c r="Y60" s="10"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -2941,7 +2989,7 @@
       <c r="X61" s="10"/>
       <c r="Y61" s="10"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -2968,7 +3016,7 @@
       <c r="X62" s="10"/>
       <c r="Y62" s="10"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -2995,7 +3043,7 @@
       <c r="X63" s="10"/>
       <c r="Y63" s="10"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -3022,7 +3070,7 @@
       <c r="X64" s="10"/>
       <c r="Y64" s="10"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -3049,7 +3097,7 @@
       <c r="X65" s="10"/>
       <c r="Y65" s="10"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -3076,7 +3124,7 @@
       <c r="X66" s="10"/>
       <c r="Y66" s="10"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -3103,7 +3151,7 @@
       <c r="X67" s="10"/>
       <c r="Y67" s="10"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -3130,7 +3178,7 @@
       <c r="X68" s="10"/>
       <c r="Y68" s="10"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -3157,7 +3205,7 @@
       <c r="X69" s="10"/>
       <c r="Y69" s="10"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -3184,7 +3232,7 @@
       <c r="X70" s="10"/>
       <c r="Y70" s="10"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -3211,7 +3259,7 @@
       <c r="X71" s="10"/>
       <c r="Y71" s="10"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -3238,7 +3286,7 @@
       <c r="X72" s="10"/>
       <c r="Y72" s="10"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -3265,7 +3313,7 @@
       <c r="X73" s="10"/>
       <c r="Y73" s="10"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -3292,7 +3340,7 @@
       <c r="X74" s="10"/>
       <c r="Y74" s="10"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -3319,7 +3367,7 @@
       <c r="X75" s="10"/>
       <c r="Y75" s="10"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -3346,7 +3394,7 @@
       <c r="X76" s="10"/>
       <c r="Y76" s="10"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -3373,7 +3421,7 @@
       <c r="X77" s="10"/>
       <c r="Y77" s="10"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -3400,7 +3448,7 @@
       <c r="X78" s="10"/>
       <c r="Y78" s="10"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -3427,7 +3475,7 @@
       <c r="X79" s="10"/>
       <c r="Y79" s="10"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -3454,7 +3502,7 @@
       <c r="X80" s="10"/>
       <c r="Y80" s="10"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -3481,7 +3529,7 @@
       <c r="X81" s="10"/>
       <c r="Y81" s="10"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -3508,7 +3556,7 @@
       <c r="X82" s="10"/>
       <c r="Y82" s="10"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -3535,7 +3583,7 @@
       <c r="X83" s="10"/>
       <c r="Y83" s="10"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -3562,7 +3610,7 @@
       <c r="X84" s="10"/>
       <c r="Y84" s="10"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -3589,7 +3637,7 @@
       <c r="X85" s="10"/>
       <c r="Y85" s="10"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -3616,7 +3664,7 @@
       <c r="X86" s="10"/>
       <c r="Y86" s="10"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -3643,7 +3691,7 @@
       <c r="X87" s="10"/>
       <c r="Y87" s="10"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -3670,7 +3718,7 @@
       <c r="X88" s="10"/>
       <c r="Y88" s="10"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -3697,7 +3745,7 @@
       <c r="X89" s="10"/>
       <c r="Y89" s="10"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -3724,7 +3772,7 @@
       <c r="X90" s="10"/>
       <c r="Y90" s="10"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -3751,7 +3799,7 @@
       <c r="X91" s="10"/>
       <c r="Y91" s="10"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -3778,7 +3826,7 @@
       <c r="X92" s="10"/>
       <c r="Y92" s="10"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -3805,7 +3853,7 @@
       <c r="X93" s="10"/>
       <c r="Y93" s="10"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -3832,7 +3880,7 @@
       <c r="X94" s="10"/>
       <c r="Y94" s="10"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -3859,7 +3907,7 @@
       <c r="X95" s="10"/>
       <c r="Y95" s="10"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -3886,7 +3934,7 @@
       <c r="X96" s="10"/>
       <c r="Y96" s="10"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -3913,7 +3961,7 @@
       <c r="X97" s="10"/>
       <c r="Y97" s="10"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -3940,7 +3988,7 @@
       <c r="X98" s="10"/>
       <c r="Y98" s="10"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -3967,7 +4015,7 @@
       <c r="X99" s="10"/>
       <c r="Y99" s="10"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3994,7 +4042,7 @@
       <c r="X100" s="10"/>
       <c r="Y100" s="10"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -4021,7 +4069,7 @@
       <c r="X101" s="10"/>
       <c r="Y101" s="10"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -4048,7 +4096,7 @@
       <c r="X102" s="10"/>
       <c r="Y102" s="10"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -4075,7 +4123,7 @@
       <c r="X103" s="10"/>
       <c r="Y103" s="10"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -4102,7 +4150,7 @@
       <c r="X104" s="10"/>
       <c r="Y104" s="10"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -4129,7 +4177,7 @@
       <c r="X105" s="10"/>
       <c r="Y105" s="10"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -4156,7 +4204,7 @@
       <c r="X106" s="10"/>
       <c r="Y106" s="10"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -4183,7 +4231,7 @@
       <c r="X107" s="10"/>
       <c r="Y107" s="10"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -4210,7 +4258,7 @@
       <c r="X108" s="10"/>
       <c r="Y108" s="10"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -4237,7 +4285,7 @@
       <c r="X109" s="10"/>
       <c r="Y109" s="10"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -4264,7 +4312,7 @@
       <c r="X110" s="10"/>
       <c r="Y110" s="10"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -4291,7 +4339,7 @@
       <c r="X111" s="10"/>
       <c r="Y111" s="10"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -4318,7 +4366,7 @@
       <c r="X112" s="10"/>
       <c r="Y112" s="10"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -4345,7 +4393,7 @@
       <c r="X113" s="10"/>
       <c r="Y113" s="10"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -4372,7 +4420,7 @@
       <c r="X114" s="10"/>
       <c r="Y114" s="10"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -4399,7 +4447,7 @@
       <c r="X115" s="10"/>
       <c r="Y115" s="10"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -4426,7 +4474,7 @@
       <c r="X116" s="10"/>
       <c r="Y116" s="10"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -4453,7 +4501,7 @@
       <c r="X117" s="10"/>
       <c r="Y117" s="10"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -4480,7 +4528,7 @@
       <c r="X118" s="10"/>
       <c r="Y118" s="10"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -4507,7 +4555,7 @@
       <c r="X119" s="10"/>
       <c r="Y119" s="10"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -4534,7 +4582,7 @@
       <c r="X120" s="10"/>
       <c r="Y120" s="10"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -4561,7 +4609,7 @@
       <c r="X121" s="10"/>
       <c r="Y121" s="10"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -4588,7 +4636,7 @@
       <c r="X122" s="10"/>
       <c r="Y122" s="10"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -4615,7 +4663,7 @@
       <c r="X123" s="10"/>
       <c r="Y123" s="10"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -4642,7 +4690,7 @@
       <c r="X124" s="10"/>
       <c r="Y124" s="10"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -4669,7 +4717,7 @@
       <c r="X125" s="10"/>
       <c r="Y125" s="10"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -4696,7 +4744,7 @@
       <c r="X126" s="10"/>
       <c r="Y126" s="10"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -4723,7 +4771,7 @@
       <c r="X127" s="10"/>
       <c r="Y127" s="10"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -4750,7 +4798,7 @@
       <c r="X128" s="10"/>
       <c r="Y128" s="10"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -4777,7 +4825,7 @@
       <c r="X129" s="10"/>
       <c r="Y129" s="10"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -4804,7 +4852,7 @@
       <c r="X130" s="10"/>
       <c r="Y130" s="10"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -4831,7 +4879,7 @@
       <c r="X131" s="10"/>
       <c r="Y131" s="10"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -4858,7 +4906,7 @@
       <c r="X132" s="10"/>
       <c r="Y132" s="10"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -4885,7 +4933,7 @@
       <c r="X133" s="10"/>
       <c r="Y133" s="10"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -4912,7 +4960,7 @@
       <c r="X134" s="10"/>
       <c r="Y134" s="10"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -4939,7 +4987,7 @@
       <c r="X135" s="10"/>
       <c r="Y135" s="10"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -4966,7 +5014,7 @@
       <c r="X136" s="10"/>
       <c r="Y136" s="10"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -4993,7 +5041,7 @@
       <c r="X137" s="10"/>
       <c r="Y137" s="10"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -5020,7 +5068,7 @@
       <c r="X138" s="10"/>
       <c r="Y138" s="10"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -5047,7 +5095,7 @@
       <c r="X139" s="10"/>
       <c r="Y139" s="10"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -5074,7 +5122,7 @@
       <c r="X140" s="10"/>
       <c r="Y140" s="10"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -5101,7 +5149,7 @@
       <c r="X141" s="10"/>
       <c r="Y141" s="10"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -5128,7 +5176,7 @@
       <c r="X142" s="10"/>
       <c r="Y142" s="10"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -5155,7 +5203,7 @@
       <c r="X143" s="10"/>
       <c r="Y143" s="10"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -5182,7 +5230,7 @@
       <c r="X144" s="10"/>
       <c r="Y144" s="10"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -5209,7 +5257,7 @@
       <c r="X145" s="10"/>
       <c r="Y145" s="10"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -5236,7 +5284,7 @@
       <c r="X146" s="10"/>
       <c r="Y146" s="10"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -5263,7 +5311,7 @@
       <c r="X147" s="10"/>
       <c r="Y147" s="10"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -5290,7 +5338,7 @@
       <c r="X148" s="10"/>
       <c r="Y148" s="10"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -5317,7 +5365,7 @@
       <c r="X149" s="10"/>
       <c r="Y149" s="10"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -5344,7 +5392,7 @@
       <c r="X150" s="10"/>
       <c r="Y150" s="10"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -5371,7 +5419,7 @@
       <c r="X151" s="10"/>
       <c r="Y151" s="10"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -5398,7 +5446,7 @@
       <c r="X152" s="10"/>
       <c r="Y152" s="10"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -5425,7 +5473,7 @@
       <c r="X153" s="10"/>
       <c r="Y153" s="10"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -5452,7 +5500,7 @@
       <c r="X154" s="10"/>
       <c r="Y154" s="10"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -5479,7 +5527,7 @@
       <c r="X155" s="10"/>
       <c r="Y155" s="10"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -5506,7 +5554,7 @@
       <c r="X156" s="10"/>
       <c r="Y156" s="10"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -5533,7 +5581,7 @@
       <c r="X157" s="10"/>
       <c r="Y157" s="10"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -5560,7 +5608,7 @@
       <c r="X158" s="10"/>
       <c r="Y158" s="10"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -5587,7 +5635,7 @@
       <c r="X159" s="10"/>
       <c r="Y159" s="10"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -5614,7 +5662,7 @@
       <c r="X160" s="10"/>
       <c r="Y160" s="10"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -5641,7 +5689,7 @@
       <c r="X161" s="10"/>
       <c r="Y161" s="10"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -5668,7 +5716,7 @@
       <c r="X162" s="10"/>
       <c r="Y162" s="10"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -5695,7 +5743,7 @@
       <c r="X163" s="10"/>
       <c r="Y163" s="10"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -5722,7 +5770,7 @@
       <c r="X164" s="10"/>
       <c r="Y164" s="10"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -5749,7 +5797,7 @@
       <c r="X165" s="10"/>
       <c r="Y165" s="10"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -5776,7 +5824,7 @@
       <c r="X166" s="10"/>
       <c r="Y166" s="10"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -5803,7 +5851,7 @@
       <c r="X167" s="10"/>
       <c r="Y167" s="10"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -5830,7 +5878,7 @@
       <c r="X168" s="10"/>
       <c r="Y168" s="10"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -5857,7 +5905,7 @@
       <c r="X169" s="10"/>
       <c r="Y169" s="10"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -5884,7 +5932,7 @@
       <c r="X170" s="10"/>
       <c r="Y170" s="10"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -5911,7 +5959,7 @@
       <c r="X171" s="10"/>
       <c r="Y171" s="10"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -5938,7 +5986,7 @@
       <c r="X172" s="10"/>
       <c r="Y172" s="10"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -5965,7 +6013,7 @@
       <c r="X173" s="10"/>
       <c r="Y173" s="10"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -5992,7 +6040,7 @@
       <c r="X174" s="10"/>
       <c r="Y174" s="10"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -6019,7 +6067,7 @@
       <c r="X175" s="10"/>
       <c r="Y175" s="10"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -6046,7 +6094,7 @@
       <c r="X176" s="10"/>
       <c r="Y176" s="10"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -6073,7 +6121,7 @@
       <c r="X177" s="10"/>
       <c r="Y177" s="10"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -6100,7 +6148,7 @@
       <c r="X178" s="10"/>
       <c r="Y178" s="10"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -6127,7 +6175,7 @@
       <c r="X179" s="10"/>
       <c r="Y179" s="10"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -6154,7 +6202,7 @@
       <c r="X180" s="10"/>
       <c r="Y180" s="10"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -6181,7 +6229,7 @@
       <c r="X181" s="10"/>
       <c r="Y181" s="10"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -6208,7 +6256,7 @@
       <c r="X182" s="10"/>
       <c r="Y182" s="10"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -6235,7 +6283,7 @@
       <c r="X183" s="10"/>
       <c r="Y183" s="10"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -6262,7 +6310,7 @@
       <c r="X184" s="10"/>
       <c r="Y184" s="10"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -6289,7 +6337,7 @@
       <c r="X185" s="10"/>
       <c r="Y185" s="10"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -6316,7 +6364,7 @@
       <c r="X186" s="10"/>
       <c r="Y186" s="10"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -6343,7 +6391,7 @@
       <c r="X187" s="10"/>
       <c r="Y187" s="10"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -6370,7 +6418,7 @@
       <c r="X188" s="10"/>
       <c r="Y188" s="10"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -6397,7 +6445,7 @@
       <c r="X189" s="10"/>
       <c r="Y189" s="10"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -6424,7 +6472,7 @@
       <c r="X190" s="10"/>
       <c r="Y190" s="10"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -6451,7 +6499,7 @@
       <c r="X191" s="10"/>
       <c r="Y191" s="10"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -6478,7 +6526,7 @@
       <c r="X192" s="10"/>
       <c r="Y192" s="10"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -6505,7 +6553,7 @@
       <c r="X193" s="10"/>
       <c r="Y193" s="10"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -6532,7 +6580,7 @@
       <c r="X194" s="10"/>
       <c r="Y194" s="10"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -6559,7 +6607,7 @@
       <c r="X195" s="10"/>
       <c r="Y195" s="10"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -6586,7 +6634,7 @@
       <c r="X196" s="10"/>
       <c r="Y196" s="10"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -6613,7 +6661,7 @@
       <c r="X197" s="10"/>
       <c r="Y197" s="10"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -6640,7 +6688,7 @@
       <c r="X198" s="10"/>
       <c r="Y198" s="10"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -6667,7 +6715,7 @@
       <c r="X199" s="10"/>
       <c r="Y199" s="10"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -6694,7 +6742,7 @@
       <c r="X200" s="10"/>
       <c r="Y200" s="10"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -6721,7 +6769,7 @@
       <c r="X201" s="10"/>
       <c r="Y201" s="10"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -6748,7 +6796,7 @@
       <c r="X202" s="10"/>
       <c r="Y202" s="10"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -6775,7 +6823,7 @@
       <c r="X203" s="10"/>
       <c r="Y203" s="10"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -6802,7 +6850,7 @@
       <c r="X204" s="10"/>
       <c r="Y204" s="10"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -6829,7 +6877,7 @@
       <c r="X205" s="10"/>
       <c r="Y205" s="10"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -6856,7 +6904,7 @@
       <c r="X206" s="10"/>
       <c r="Y206" s="10"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -6883,7 +6931,7 @@
       <c r="X207" s="10"/>
       <c r="Y207" s="10"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -6910,7 +6958,7 @@
       <c r="X208" s="10"/>
       <c r="Y208" s="10"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -6937,7 +6985,7 @@
       <c r="X209" s="10"/>
       <c r="Y209" s="10"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -6964,7 +7012,7 @@
       <c r="X210" s="10"/>
       <c r="Y210" s="10"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -6991,7 +7039,7 @@
       <c r="X211" s="10"/>
       <c r="Y211" s="10"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -7018,7 +7066,7 @@
       <c r="X212" s="10"/>
       <c r="Y212" s="10"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -7045,7 +7093,7 @@
       <c r="X213" s="10"/>
       <c r="Y213" s="10"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -7072,7 +7120,7 @@
       <c r="X214" s="10"/>
       <c r="Y214" s="10"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -7099,7 +7147,7 @@
       <c r="X215" s="10"/>
       <c r="Y215" s="10"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -7126,7 +7174,7 @@
       <c r="X216" s="10"/>
       <c r="Y216" s="10"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -7153,7 +7201,7 @@
       <c r="X217" s="10"/>
       <c r="Y217" s="10"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -7180,7 +7228,7 @@
       <c r="X218" s="10"/>
       <c r="Y218" s="10"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -7209,7 +7257,7 @@
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
